--- a/medicine/Enfance/J.M._Erre/J.M._Erre.xlsx
+++ b/medicine/Enfance/J.M._Erre/J.M._Erre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marcel Erre, publié sous la signature J.M. Erre[1], est un écrivain français né en 1971 à Perpignan. Il est le frère de l'auteur de bande dessinée Fabrice Erre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marcel Erre, publié sous la signature J.M. Erre, est un écrivain français né en 1971 à Perpignan. Il est le frère de l'auteur de bande dessinée Fabrice Erre.
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il publie son premier roman en 2006, Prenez soin du chien[2], une enquête loufoque mettant aux prises les locataires de deux immeubles jumeaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie son premier roman en 2006, Prenez soin du chien, une enquête loufoque mettant aux prises les locataires de deux immeubles jumeaux.
 En 2008, paraît Made in China, les aventures d'un chinois noir à la recherche de ses origines.
-En 2010, il rend hommage à l'univers décalé du cinéma Bis dans Série Z[3].
-Paru en février 2012, son roman Le Mystère Sherlock[4], qui explore le monde des holmésiens sur un mode humoristique, est finaliste du prix Orange du livre[5] et dans la sélection 2013 du Cezam Prix Littéraire Inter CE.
-En septembre 2014, son roman La fin du monde a du retard obtient le Groprix de littérature grolandaise au Festival International du Film Grolandais de Toulouse[6]. Il rejoint alors l'équipe des auteurs de sketchs de l'émission Made in Groland sur Canal +.
+En 2010, il rend hommage à l'univers décalé du cinéma Bis dans Série Z.
+Paru en février 2012, son roman Le Mystère Sherlock, qui explore le monde des holmésiens sur un mode humoristique, est finaliste du prix Orange du livre et dans la sélection 2013 du Cezam Prix Littéraire Inter CE.
+En septembre 2014, son roman La fin du monde a du retard obtient le Groprix de littérature grolandaise au Festival International du Film Grolandais de Toulouse. Il rejoint alors l'équipe des auteurs de sketchs de l'émission Made in Groland sur Canal +.
 En 2016, son premier roman pour la jeunesse, Comment se débarrasser d'un vampire, obtient le Prix du Premier Roman Cultura J'aime lire.
 Ses romans sont traduits en plusieurs langues.[réf. nécessaire]
-Depuis 2018, il collabore au magazine Fluide Glacial avec des scénarios de BD dessinés notamment par son frère Fabrice Erre[7], ainsi qu'avec des nouvelles.
-En 2019, son roman Qui a tué l'homme-homard ? est lauréat du Prix Paris Polar[8].
+Depuis 2018, il collabore au magazine Fluide Glacial avec des scénarios de BD dessinés notamment par son frère Fabrice Erre, ainsi qu'avec des nouvelles.
+En 2019, son roman Qui a tué l'homme-homard ? est lauréat du Prix Paris Polar.
 </t>
         </is>
       </c>
@@ -552,31 +566,214 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Prenez soin du chien, éd. Buchet-Chastel, 2006, 294 p.  (ISBN 978-2283021910) En poche : éd. Points Seuil, 06/2007, 288 p.  (ISBN 978-2757801246) Traductions : coréen, slovène
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prenez soin du chien, éd. Buchet-Chastel, 2006, 294 p.  (ISBN 978-2283021910) En poche : éd. Points Seuil, 06/2007, 288 p.  (ISBN 978-2757801246) Traductions : coréen, slovène
 Made in China, éd. Buchet-Chastel, 2008, 272 p.  (ISBN 978-2283023235) En poche : éd. Points Seuil, 04/2010, 244 p.  (ISBN 978-2757811962) Traductions : coréen, russe
-Série Z, éd. Buchet-Chastel, 2010[3]  (ISBN 978-2283024447) En poche : éd. Pocket, 2014, 288 p.  (ISBN 978-2266244930) Traductions : coréen, russe, italien, japonais
-Le Mystère Sherlock, éd. Buchet-Chastel, 2012[4], 328 p.  (ISBN 978-2283025628) En poche : éd. Pocket, 06/2013, 288 p.  (ISBN 978-2266233552) En grands caractères : éd. A vue d’œil, 09/2012  (ISBN 978-2846667265) Traductions : coréen, russe, italien, chinois
-La fin du monde a du retard, éd. Buchet-Chastel, 2014[9], 416 p.  (ISBN 978-2283027318) En poche : éd. Pocket, 02/2015, 336 p.  (ISBN 978-2266254250) Groprix littéraire du Festival International Grolandais de Toulouse 2014
-Le Grand N’importe quoi, éd. Buchet-Chastel, 2016[10]  (ISBN 978-2283029336) En poche : éd. Pocket, 2017, 256 p.  (ISBN 978-2266271684)
-Qui a tué l’homme-homard ?, éd. Buchet-Chastel, 2019[11], 368 p.  (ISBN 978-2283032237)  En poche : éd. Pocket, 2021, 320 p.  (ISBN 978-2266297929) Prix Paris Polar 2019 Prix Charles Exbrayat des lycéens 2019
+Série Z, éd. Buchet-Chastel, 2010  (ISBN 978-2283024447) En poche : éd. Pocket, 2014, 288 p.  (ISBN 978-2266244930) Traductions : coréen, russe, italien, japonais
+Le Mystère Sherlock, éd. Buchet-Chastel, 2012, 328 p.  (ISBN 978-2283025628) En poche : éd. Pocket, 06/2013, 288 p.  (ISBN 978-2266233552) En grands caractères : éd. A vue d’œil, 09/2012  (ISBN 978-2846667265) Traductions : coréen, russe, italien, chinois
+La fin du monde a du retard, éd. Buchet-Chastel, 2014, 416 p.  (ISBN 978-2283027318) En poche : éd. Pocket, 02/2015, 336 p.  (ISBN 978-2266254250) Groprix littéraire du Festival International Grolandais de Toulouse 2014
+Le Grand N’importe quoi, éd. Buchet-Chastel, 2016  (ISBN 978-2283029336) En poche : éd. Pocket, 2017, 256 p.  (ISBN 978-2266271684)
+Qui a tué l’homme-homard ?, éd. Buchet-Chastel, 2019, 368 p.  (ISBN 978-2283032237)  En poche : éd. Pocket, 2021, 320 p.  (ISBN 978-2266297929) Prix Paris Polar 2019 Prix Charles Exbrayat des lycéens 2019
 Le bonheur est au fond du couloir à gauche, éd. Buchet-Chastel, 2021, 192 p.  (ISBN 978-2283033807) En poche : éd. Pocket, 2022, 125 p.  (ISBN 978-2266322140)
-Les autres ne sont pas des gens comme nous, éd. Buchet-Chastel, 2023, 201 p.  (ISBN 978-2283036532)
-Romans jeunesse
-Comment se débarrasser d'un vampire avec du ketchup, des gousses d'ail et un peu d'imagination, éd. Rageot, 2016, 176 p.  (ISBN 978-2700250954) Illustrations de Clémence Lallemand Prix du Premier Roman Cultura J'aime lire 2016 Traduction : anglais, turc
+Les autres ne sont pas des gens comme nous, éd. Buchet-Chastel, 2023, 201 p.  (ISBN 978-2283036532)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>J.M._Erre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.M._Erre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Comment se débarrasser d'un vampire avec du ketchup, des gousses d'ail et un peu d'imagination, éd. Rageot, 2016, 176 p.  (ISBN 978-2700250954) Illustrations de Clémence Lallemand Prix du Premier Roman Cultura J'aime lire 2016 Traduction : anglais, turc
 Comment devenir Superdétective avec un copain collant, des croquettes pour chat et un peu d'imagination, éd. Rageot, 2017, 224 p.  (ISBN 978-2700253214) Illustrations de Clémence Lallemand Traduction : turc
 Le Chat chelou venu d'ailleurs, éd. Rageot, 2020, 160 p.  (ISBN 978-2700273823) Illustrations d'Anne-Lise Combeaud
-Nous, les surhumains, éd. Rageot, 2023, 432 p.  (ISBN 978-2700277883)
-Théâtre
-L'Art délicat de la scène de ménage, éd. L'Oeil du prince, 2019, 136 p.  (ISBN 978-2351051719)
-L'Intrus, autopublication numérique, 2021.  (ISBN 979-1035946203)
-Bande dessinée
-Coluche Président ![12],[13] (scénario), dessins de Fabrice Erre, éd. Fluide glacial, 2020.  (ISBN 978-2378783655)
-Nouvelles
-Recueil
-Enfin des bonnes nouvelles ! (collectif), éd. Fluide glacial, 2021.  (ISBN 979-1038203006)
-Dans le mensuel Fluide Glacial
-Menu de fête, Fluide Glacial n°517, juin 2019. Illustrations de Maud Chalmel.
+Nous, les surhumains, éd. Rageot, 2023, 432 p.  (ISBN 978-2700277883)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>J.M._Erre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.M._Erre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Art délicat de la scène de ménage, éd. L'Oeil du prince, 2019, 136 p.  (ISBN 978-2351051719)
+L'Intrus, autopublication numérique, 2021.  (ISBN 979-1035946203)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>J.M._Erre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.M._Erre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Coluche Président !, (scénario), dessins de Fabrice Erre, éd. Fluide glacial, 2020.  (ISBN 978-2378783655)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>J.M._Erre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.M._Erre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Recueil</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enfin des bonnes nouvelles ! (collectif), éd. Fluide glacial, 2021.  (ISBN 979-1038203006)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>J.M._Erre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.M._Erre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dans le mensuel Fluide Glacial</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Menu de fête, Fluide Glacial n°517, juin 2019. Illustrations de Maud Chalmel.
 Le Niveau ultime, Fluide Glacial série-or n°88, septembre 2019. Illustrations de James Kaye.
 Le Jour de la lettre, Fluide Glacial série-or n°89, décembre 2019. Illustrations de Jeff Pourquié.
 En pièces détachées, Fluide Glacial n°527, avril 2020. Illustrations de Maud Chalmel.
@@ -602,64 +799,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>J.M._Erre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/J.M._Erre</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>J.M._Erre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.M._Erre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Télévision</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2014-2016 : Made in Groland (sketchs)
 Depuis 2016 : Groland Le Zapoï (sketchs)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>J.M._Erre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/J.M._Erre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>J.M._Erre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.M._Erre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2014 : Cinématon (n°2837)[14] de Gérard Courant
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2014 : Cinématon (n°2837) de Gérard Courant
 2014 : L'Annexion de l'Occitanie par Groland (Journal du Fifigrot 2014) de Gérard Courant
 2014 : La Conférence de presse et la cérémonie de clôture du Fifigrot 2014, Carnets filmés de Gérard Courant</t>
         </is>
